--- a/Stats/Homework/HW9/Baseball_Data_analysis.xlsx
+++ b/Stats/Homework/HW9/Baseball_Data_analysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skennedy/Documents/SMU/Stats/Homework/HW9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1D7AC0D8-29E1-AD49-B3E6-894C3C4C232A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{21BFBA6A-D55B-D34A-95C7-19C0D8139CD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="regression" sheetId="2" r:id="rId1"/>
-    <sheet name="Baseball_Data_analysis" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Baseball_Data_analysis" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">TEAM </t>
   </si>
@@ -128,6 +129,9 @@
   </si>
   <si>
     <t>PIT</t>
+  </si>
+  <si>
+    <t>factor_length_match</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2020,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="165" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2353,6 +2357,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
